--- a/biology/Médecine/Sergueï_Brioukhonenko/Sergueï_Brioukhonenko.xlsx
+++ b/biology/Médecine/Sergueï_Brioukhonenko/Sergueï_Brioukhonenko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Brioukhonenko</t>
+          <t>Sergueï_Brioukhonenko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Sergueïévitch Brioukhonenko (en russe : Сергей Сергеевич Брюхоненко), né le 30 avril 1890 à Kozlov (aujourd'hui Mitchourinsk) et mort le 20 avril 1960 à Moscou, est un chirurgien soviétique, pionnier de la chirurgie à cœur ouvert en Russie. Il fut l'un des dirigeants de l'Institut de recherche de chirurgie expérimentale, où le professeur Alexandre Vichnevski effectue la première opération soviétique à cœur ouvert en 1957.
 Chirurgien militaire pendant la Première Guerre mondiale, Brioukhonenko est principalement connu pour avoir inventé et réalisé l'« autojektor », un ensemble cœur-poumon artificiel rudimentaire. Le dispositif a été utilisé avec des résultats mitigés dans une série d'expériences sur des chiens de 1926 à 1939, comme on peut le voir dans le film Expériences de réanimation d'organismes. Si certains pensent aujourd'hui que le film constitue une remise en scène des procédures, les expériences elles-mêmes étaient bien documentées.
